--- a/ghana.index.by.Region.02.xlsx
+++ b/ghana.index.by.Region.02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\!02.GITHUB.REPOS\IECS.indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F895C6-8858-4994-B9ED-3A7F13E8F87E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FB224E-521B-47D3-9CB1-21865B1DE1F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Brong Ahafo</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Eastern</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Ashanti</t>
   </si>
   <si>
@@ -104,6 +98,15 @@
   </si>
   <si>
     <t>MMR Quartile</t>
+  </si>
+  <si>
+    <t>Random selection</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -129,8 +132,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +154,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -156,6 +173,21 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -269,11 +301,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,42 +353,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,15 +768,16 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -669,36 +791,42 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="20">
         <v>86.6</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="20">
         <v>82.1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="20">
         <v>64</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="21">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -715,36 +843,42 @@
       <c r="G4" s="15">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>88.4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>69.099999999999994</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>49.1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
@@ -761,165 +895,276 @@
       <c r="G6" s="15">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="23">
         <v>95.7</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="23">
         <v>83.2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="23">
         <v>70.7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="24">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>130.80000000000001</v>
-      </c>
-      <c r="E8" s="14">
-        <v>84.6</v>
-      </c>
-      <c r="F8" s="14">
-        <v>57.4</v>
-      </c>
-      <c r="G8" s="15">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E8" s="12">
+        <v>68.7</v>
+      </c>
+      <c r="F8" s="12">
+        <v>51.4</v>
+      </c>
+      <c r="G8" s="13">
+        <v>62.7</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="E9" s="14">
-        <v>68.7</v>
-      </c>
-      <c r="F9" s="14">
-        <v>51.4</v>
-      </c>
-      <c r="G9" s="15">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="26">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="E9" s="26">
+        <v>84.6</v>
+      </c>
+      <c r="F9" s="26">
+        <v>57.4</v>
+      </c>
+      <c r="G9" s="27">
+        <v>64.2</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="14">
-        <v>135.9</v>
+        <v>197.8</v>
       </c>
       <c r="E10" s="14">
-        <v>81.5</v>
+        <v>71.3</v>
       </c>
       <c r="F10" s="14">
-        <v>59.5</v>
+        <v>55.1</v>
       </c>
       <c r="G10" s="15">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57.9</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
         <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>197.8</v>
+        <v>156</v>
       </c>
       <c r="E11" s="14">
-        <v>71.3</v>
+        <v>83.8</v>
       </c>
       <c r="F11" s="14">
-        <v>55.1</v>
+        <v>58.9</v>
       </c>
       <c r="G11" s="15">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64.8</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="25">
+        <v>4</v>
+      </c>
+      <c r="D12" s="26">
+        <v>138.4</v>
+      </c>
+      <c r="E12" s="26">
+        <v>114.7</v>
+      </c>
+      <c r="F12" s="26">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G12" s="27">
+        <v>109.4</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
-        <v>156</v>
-      </c>
-      <c r="E12" s="14">
-        <v>83.8</v>
-      </c>
-      <c r="F12" s="14">
-        <v>58.9</v>
-      </c>
-      <c r="G12" s="15">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>86.6</v>
+      </c>
+      <c r="E16" s="12">
+        <v>82.1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>64</v>
+      </c>
+      <c r="G16" s="13">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>95.7</v>
+      </c>
+      <c r="E17" s="14">
+        <v>83.2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>70.7</v>
+      </c>
+      <c r="G17" s="15">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="E18" s="14">
+        <v>84.6</v>
+      </c>
+      <c r="F18" s="14">
+        <v>57.4</v>
+      </c>
+      <c r="G18" s="15">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11">
         <v>4</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D19" s="16">
         <v>138.4</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E19" s="16">
         <v>114.7</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F19" s="16">
         <v>70.599999999999994</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G19" s="17">
         <v>109.4</v>
       </c>
     </row>
